--- a/abc.xlsx
+++ b/abc.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,8 +28,11 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -38,7 +41,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00CB1B45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002B5F75"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,12 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -483,7 +492,7 @@
       <c r="B2" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>95</v>
       </c>
       <c r="D2" t="n">
@@ -509,7 +518,7 @@
       <c r="B3" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>91</v>
       </c>
       <c r="D3" t="n">
@@ -541,7 +550,7 @@
       <c r="D4" t="n">
         <v>75</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>97</v>
       </c>
       <c r="F4" t="n">
@@ -567,7 +576,7 @@
       <c r="D5" t="n">
         <v>68</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>83</v>
       </c>
       <c r="F5" t="n">
@@ -593,7 +602,7 @@
       <c r="D6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>86</v>
       </c>
       <c r="F6" t="n">
@@ -613,7 +622,7 @@
       <c r="B7" t="n">
         <v>76</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>86</v>
       </c>
       <c r="D7" t="n">
@@ -622,7 +631,7 @@
       <c r="E7" t="n">
         <v>63</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>86</v>
       </c>
       <c r="G7" t="n">
@@ -645,7 +654,7 @@
       <c r="D8" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>89</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -665,7 +674,7 @@
       <c r="B9" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>86</v>
       </c>
       <c r="D9" t="n">
@@ -700,7 +709,7 @@
       <c r="E10" t="n">
         <v>93</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>94</v>
       </c>
       <c r="G10" t="n">
@@ -720,7 +729,7 @@
       <c r="C11" t="n">
         <v>93</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>98</v>
       </c>
       <c r="E11" t="n">
@@ -746,7 +755,7 @@
       <c r="C12" t="n">
         <v>65</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>68</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -778,7 +787,7 @@
       <c r="E13" t="n">
         <v>85</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="3" t="n">
         <v>94</v>
       </c>
       <c r="G13" t="n">
@@ -801,7 +810,7 @@
       <c r="D14" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="3" t="n">
         <v>97</v>
       </c>
       <c r="F14" t="n">
@@ -830,7 +839,7 @@
       <c r="E15" t="n">
         <v>64</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="3" t="n">
         <v>96</v>
       </c>
       <c r="G15" t="n">
@@ -856,7 +865,7 @@
       <c r="E16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="3" t="n">
         <v>76</v>
       </c>
       <c r="G16" t="n">
@@ -870,7 +879,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="3" t="n">
         <v>83</v>
       </c>
       <c r="C17" t="n">
@@ -896,7 +905,7 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="3" t="n">
         <v>97</v>
       </c>
       <c r="C18" t="n">
@@ -925,7 +934,7 @@
       <c r="B19" t="n">
         <v>67</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="3" t="n">
         <v>73</v>
       </c>
       <c r="D19" t="n">
@@ -957,7 +966,7 @@
       <c r="D20" t="n">
         <v>72</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="3" t="n">
         <v>87</v>
       </c>
       <c r="F20" t="n">
@@ -986,7 +995,7 @@
       <c r="E21" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="3" t="n">
         <v>77</v>
       </c>
       <c r="G21" t="n">
@@ -1009,7 +1018,7 @@
       <c r="D22" t="n">
         <v>71</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="3" t="n">
         <v>99</v>
       </c>
       <c r="F22" s="2" t="n">
@@ -1029,7 +1038,7 @@
       <c r="B23" t="n">
         <v>83</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="3" t="n">
         <v>85</v>
       </c>
       <c r="D23" t="n">
@@ -1055,7 +1064,7 @@
       <c r="B24" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="3" t="n">
         <v>81</v>
       </c>
       <c r="D24" t="n">
@@ -1087,7 +1096,7 @@
       <c r="D25" t="n">
         <v>87</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="3" t="n">
         <v>88</v>
       </c>
       <c r="F25" t="n">
@@ -1116,7 +1125,7 @@
       <c r="E26" t="n">
         <v>63</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="3" t="n">
         <v>79</v>
       </c>
       <c r="G26" t="n">
@@ -1130,7 +1139,7 @@
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="3" t="n">
         <v>85</v>
       </c>
       <c r="C27" s="2" t="n">
@@ -1159,7 +1168,7 @@
       <c r="B28" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="3" t="n">
         <v>83</v>
       </c>
       <c r="D28" t="n">
@@ -1182,7 +1191,7 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="3" t="n">
         <v>93</v>
       </c>
       <c r="C29" t="n">
@@ -1211,7 +1220,7 @@
       <c r="B30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="3" t="n">
         <v>95</v>
       </c>
       <c r="D30" s="2" t="n">
@@ -1243,7 +1252,7 @@
       <c r="D31" t="n">
         <v>84</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="3" t="n">
         <v>90</v>
       </c>
       <c r="F31" s="2" t="n">
@@ -1263,7 +1272,7 @@
       <c r="B32" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="3" t="n">
         <v>98</v>
       </c>
       <c r="D32" t="n">
@@ -1298,7 +1307,7 @@
       <c r="E33" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="3" t="n">
         <v>84</v>
       </c>
       <c r="G33" t="n">
@@ -1315,7 +1324,7 @@
       <c r="B34" t="n">
         <v>89</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="3" t="n">
         <v>99</v>
       </c>
       <c r="D34" s="2" t="n">
@@ -1338,7 +1347,7 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="3" t="n">
         <v>95</v>
       </c>
       <c r="C35" t="n">
@@ -1376,7 +1385,7 @@
       <c r="E36" t="n">
         <v>69</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="3" t="n">
         <v>95</v>
       </c>
       <c r="G36" t="n">
@@ -1390,7 +1399,7 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="3" t="n">
         <v>95</v>
       </c>
       <c r="C37" t="n">
@@ -1428,7 +1437,7 @@
       <c r="E38" t="n">
         <v>63</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="3" t="n">
         <v>86</v>
       </c>
       <c r="G38" t="n">
@@ -1451,7 +1460,7 @@
       <c r="D39" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="3" t="n">
         <v>93</v>
       </c>
       <c r="F39" s="2" t="n">
@@ -1468,7 +1477,7 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="3" t="n">
         <v>97</v>
       </c>
       <c r="C40" t="n">
@@ -1480,7 +1489,7 @@
       <c r="E40" t="n">
         <v>75</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="3" t="n">
         <v>97</v>
       </c>
       <c r="G40" t="n">
@@ -1506,7 +1515,7 @@
       <c r="E41" t="n">
         <v>70</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="3" t="n">
         <v>91</v>
       </c>
       <c r="G41" t="n">
@@ -1520,7 +1529,7 @@
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="3" t="n">
         <v>92</v>
       </c>
       <c r="C42" t="n">
@@ -1555,7 +1564,7 @@
       <c r="D43" t="n">
         <v>89</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="3" t="n">
         <v>99</v>
       </c>
       <c r="F43" t="n">
@@ -1578,7 +1587,7 @@
       <c r="C44" t="n">
         <v>68</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="3" t="n">
         <v>98</v>
       </c>
       <c r="E44" t="n">
@@ -1604,7 +1613,7 @@
       <c r="C45" t="n">
         <v>79</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="3" t="n">
         <v>99</v>
       </c>
       <c r="E45" s="2" t="n">
@@ -1624,7 +1633,7 @@
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="3" t="n">
         <v>74</v>
       </c>
       <c r="C46" t="n">
@@ -1653,7 +1662,7 @@
       <c r="B47" t="n">
         <v>68</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="3" t="n">
         <v>95</v>
       </c>
       <c r="D47" t="n">
@@ -1679,7 +1688,7 @@
       <c r="B48" t="n">
         <v>76</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="3" t="n">
         <v>86</v>
       </c>
       <c r="D48" t="n">
@@ -1708,7 +1717,7 @@
       <c r="C49" t="n">
         <v>90</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="3" t="n">
         <v>99</v>
       </c>
       <c r="E49" s="2" t="n">
@@ -1740,7 +1749,7 @@
       <c r="E50" t="n">
         <v>90</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="3" t="n">
         <v>98</v>
       </c>
       <c r="G50" t="n">
@@ -1760,7 +1769,7 @@
       <c r="C51" t="n">
         <v>76</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="3" t="n">
         <v>96</v>
       </c>
       <c r="E51" t="n">
